--- a/phpprog/residenza ranitaria (RSA)/residenza sanitaria piano interrato.xlsx
+++ b/phpprog/residenza ranitaria (RSA)/residenza sanitaria piano interrato.xlsx
@@ -5,21 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollo\Desktop\fbsrl\residenza sanitaria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollo\Desktop\projects\phpprog\residenza ranitaria (RSA)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D877DA54-154B-4C2F-9518-691AABFF0F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790F7BD3-4680-4EAA-8A1A-8B72D1C6F29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="873" activeTab="6" xr2:uid="{F098839C-8E6F-4166-9575-22AE7237CB00}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="873" activeTab="4" xr2:uid="{F098839C-8E6F-4166-9575-22AE7237CB00}"/>
   </bookViews>
   <sheets>
     <sheet name="idrico sanitario 01-I" sheetId="1" r:id="rId1"/>
     <sheet name="termofluidici-pannelli rad 02-T" sheetId="2" r:id="rId2"/>
     <sheet name="acque nere 01-s" sheetId="3" r:id="rId3"/>
     <sheet name="antincendio 01-A" sheetId="4" r:id="rId4"/>
-    <sheet name="bagni" sheetId="5" r:id="rId5"/>
-    <sheet name="Aria mandata 02-C" sheetId="6" r:id="rId6"/>
-    <sheet name="Aria ripresa 03-C" sheetId="7" r:id="rId7"/>
+    <sheet name="Aria mandata 02-C" sheetId="6" r:id="rId5"/>
+    <sheet name="Aria ripresa 03-C" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
   <si>
     <t>diamtro in millimetri (mm)</t>
   </si>
@@ -68,33 +67,6 @@
   </si>
   <si>
     <t>2"</t>
-  </si>
-  <si>
-    <t>bagni disabili</t>
-  </si>
-  <si>
-    <t>bagni non disabili</t>
-  </si>
-  <si>
-    <t>water disabili</t>
-  </si>
-  <si>
-    <t>water non disabili</t>
-  </si>
-  <si>
-    <t>lavandini disabili</t>
-  </si>
-  <si>
-    <t>lavandini non disabili</t>
-  </si>
-  <si>
-    <t>vasche</t>
-  </si>
-  <si>
-    <t>docce disabili</t>
-  </si>
-  <si>
-    <t>docce non disabili</t>
   </si>
   <si>
     <t>Tubazioni</t>
@@ -989,126 +961,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598422C6-D479-4018-91E7-6887FFE7EAC5}">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04462359-459E-4E2E-B2EF-A38B0F67B97A}">
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -1125,48 +981,48 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E3" s="8">
         <v>290</v>
@@ -1183,14 +1039,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5">
         <v>9.4</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E4" s="8">
         <v>310</v>
@@ -1207,14 +1063,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5">
         <v>15.2</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E5" s="8">
         <v>260</v>
@@ -1231,14 +1087,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5">
         <v>1.5</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E6" s="8">
         <v>250</v>
@@ -1255,14 +1111,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5">
         <v>2.2999999999999998</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E7" s="11">
         <v>140</v>
@@ -1279,14 +1135,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5">
         <v>14.3</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E8" s="11">
         <v>140</v>
@@ -1303,14 +1159,14 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5">
         <v>0.8</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E9" s="11">
         <v>170</v>
@@ -1327,14 +1183,14 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5">
         <v>1.5</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E10" s="11">
         <v>170</v>
@@ -1351,14 +1207,14 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5">
         <v>2</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E11" s="11">
         <v>200</v>
@@ -1375,14 +1231,14 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5">
         <v>13.5</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E12" s="11">
         <v>200</v>
@@ -1399,14 +1255,14 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5">
         <v>6.5</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E13" s="11">
         <v>200</v>
@@ -1423,7 +1279,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
@@ -1433,7 +1289,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B15" s="5">
         <v>6</v>
@@ -1442,7 +1298,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5">
         <v>9</v>
@@ -1451,7 +1307,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B17" s="5">
         <v>1</v>
@@ -1793,7 +1649,7 @@
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C129" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1801,11 +1657,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1071AE68-6EAE-4409-8B3B-D0D9DC9648F3}">
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -1822,55 +1678,55 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B3" s="5">
         <v>3.5</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E3" s="12">
         <v>1050</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H3" s="12">
         <v>1</v>
@@ -1878,21 +1734,21 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B4" s="5">
         <v>7</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E4" s="12">
         <v>1250</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H4" s="12">
         <v>1</v>
@@ -1900,21 +1756,21 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5">
         <v>4.5</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E5" s="12">
         <v>580</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H5" s="12">
         <v>1</v>
@@ -1922,21 +1778,21 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5">
         <v>15</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E6" s="12">
         <v>620</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H6" s="12">
         <v>1</v>
@@ -1944,14 +1800,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="15" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E7" s="15">
         <v>120</v>
@@ -1968,14 +1824,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5">
         <v>6</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="13" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E8" s="13">
         <v>145</v>
@@ -1992,14 +1848,14 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5">
         <v>4</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="13" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E9" s="13">
         <v>145</v>
@@ -2016,14 +1872,14 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5">
         <v>1.5</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="13" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E10" s="13">
         <v>165</v>
@@ -2040,14 +1896,14 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5">
         <v>1.5</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="13" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E11" s="13">
         <v>200</v>
@@ -2064,14 +1920,14 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5">
         <v>6.5</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="13" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E12" s="13">
         <v>200</v>
@@ -2088,14 +1944,14 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5">
         <v>17.5</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="13" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E13" s="13">
         <v>200</v>
@@ -2113,7 +1969,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
       <c r="D14" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E14" s="9">
         <v>250</v>
@@ -2131,7 +1987,7 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
       <c r="D15" s="14" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E15" s="14">
         <v>50</v>
@@ -2149,7 +2005,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="14" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E16" s="14">
         <v>30</v>
@@ -2167,7 +2023,7 @@
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="14" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E17" s="14">
         <v>40</v>
@@ -2185,7 +2041,7 @@
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
       <c r="D18" s="14" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E18" s="14">
         <v>50</v>
@@ -2203,7 +2059,7 @@
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
       <c r="D19" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E19" s="5">
         <v>80</v>
@@ -2221,7 +2077,7 @@
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="4"/>
       <c r="D20" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E20" s="5">
         <v>80</v>
@@ -2239,7 +2095,7 @@
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E21" s="5">
         <v>100</v>
@@ -2257,7 +2113,7 @@
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="4"/>
       <c r="D22" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E22" s="5">
         <v>75</v>
@@ -2275,7 +2131,7 @@
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
       <c r="D23" s="16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E23" s="16">
         <v>100</v>
